--- a/result.xlsx
+++ b/result.xlsx
@@ -1,138 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arous\Desktop\blacklistalert_crawler-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5772E69-7AAB-4983-90A1-3804F1EDEB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="5190" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8880" yWindow="5190" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>blacklistalert_result</t>
-  </si>
-  <si>
-    <t>NG_sites</t>
-  </si>
-  <si>
-    <t>spamcop_result</t>
-  </si>
-  <si>
-    <t>trendmicro_result</t>
-  </si>
-  <si>
-    <t>trendmicro_reason</t>
-  </si>
-  <si>
-    <t>144.255.49.246</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>all.s5h.net, all.spamrats.com, bl.spamcop.net, dnsbl-3.uceprotect.net, noptr.spamrats.com, spam.dnsbl.anonmails.de, zen.spamhaus.org</t>
-  </si>
-  <si>
-    <t>List in:
-Dial-up User List (DUL)</t>
-  </si>
-  <si>
-    <t>182.22.25.252</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>34.206.39.153</t>
-  </si>
-  <si>
-    <t>all.s5h.net</t>
-  </si>
-  <si>
-    <t>184.94.240.124</t>
-  </si>
-  <si>
-    <t>37.120.169.172</t>
-  </si>
-  <si>
-    <t>b.barracudacentral.org, dnsbl-3.uceprotect.net, multi.surbl.org</t>
-  </si>
-  <si>
-    <t>106.139.178.230</t>
-  </si>
-  <si>
-    <t>193.202.80.218</t>
-  </si>
-  <si>
-    <t>dnsbl.dronebl.org</t>
-  </si>
-  <si>
-    <t>103.172.216.59</t>
-  </si>
-  <si>
-    <t>all.spamrats.com, noptr.spamrats.com</t>
-  </si>
-  <si>
-    <t>197.247.197.170</t>
-  </si>
-  <si>
-    <t>all.spamrats.com, noptr.spamrats.com, zen.spamhaus.org</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF00793D"/>
       <sz val="11"/>
-      <color rgb="FF00793D"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="0000793D"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,37 +71,104 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -478,201 +468,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
+    <col width="16.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="20.25" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13.875" customWidth="1" style="1" min="3" max="3"/>
+    <col width="15.875" customWidth="1" style="1" min="4" max="4"/>
+    <col width="18.5" customWidth="1" style="1" min="5" max="5"/>
+    <col width="18.875" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
+    <row r="1" ht="19.5" customHeight="1" s="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>blacklistalert_result</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>NG_sites</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>spamcop_result</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>trendmicro_result</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>trendmicro_reason</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>144.255.49.246</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>all.s5h.net, all.spamrats.com, bl.spamcop.net, dnsbl-2.uceprotect.net, dnsbl-3.uceprotect.net, noptr.spamrats.com, spam.dnsbl.anonmails.de, zen.spamhaus.org</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>List in:
+Dial-up User List (DUL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>182.22.25.252</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n"/>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>34.206.39.153</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>all.s5h.net</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>184.94.240.124</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>37.120.169.172</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>b.barracudacentral.org, multi.surbl.org</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>106.139.178.230</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>193.202.80.218</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>dnsbl.dronebl.org</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>103.172.216.59</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>all.spamrats.com, noptr.spamrats.com, zen.spamhaus.org</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>List in:
+Dial-up User List (DUL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>197.247.197.170</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>all.spamrats.com, noptr.spamrats.com, zen.spamhaus.org</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>List in:
+Dial-up User List (DUL)</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>